--- a/Account_info.xlsx
+++ b/Account_info.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajb\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{95693EE8-0D90-4F69-83B9-FD36823E40F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="6" r:id="rId1"/>
     <sheet name="Nested_Grouping" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1:T16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="53">
   <si>
     <t>FIRST_NAME</t>
   </si>
@@ -177,6 +172,9 @@
   </si>
   <si>
     <t>Account Type Name Subtotal</t>
+  </si>
+  <si>
+    <t>YUNUS</t>
   </si>
 </sst>
 </file>
@@ -775,9 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,50 +782,53 @@
     <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="%20 - Vurgu6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="%40 - Vurgu6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="%60 - Vurgu6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Açıklama Metni" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Ana Başlık" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Bağlı Hücre" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Başlık 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Başlık 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Başlık 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Başlık 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Çıkış" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Giriş" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hesaplama" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="İşaretli Hücre" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="İyi" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kötü" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Not" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Nötr" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Toplam" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uyarı Metni" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vurgu1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Vurgu2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Vurgu3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Vurgu4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Vurgu5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Vurgu6" xfId="38" builtinId="49" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1142,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
@@ -1356,6 +1354,1464 @@
       </c>
       <c r="F11" s="20">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="20">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="20">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="20">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="20">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="20">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="20">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="20">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="20">
+        <v>219.74025974026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="20">
+        <v>230.67024280067699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="20">
+        <v>241.600225861095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="20">
+        <v>252.53020892151301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="20">
+        <v>263.46019198193102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="20">
+        <v>274.39017504234897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="20">
+        <v>285.32015810276698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="20">
+        <v>296.25014116318403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="20">
+        <v>307.18012422360198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="20">
+        <v>318.11010728401999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="20">
+        <v>329.040090344438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="20">
+        <v>339.97007340485601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="20">
+        <v>350.90005646527402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="20">
+        <v>361.83003952569101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="20">
+        <v>372.76002258610902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="20">
+        <v>383.69000564652703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="20">
+        <v>394.61998870694498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="20">
+        <v>405.54997176736299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="20">
+        <v>416.479954827781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="20">
+        <v>427.40993788819799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="20">
+        <v>438.339920948616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="20">
+        <v>449.26990400903401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="20">
+        <v>460.19988706945202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="20">
+        <v>471.129870129869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="20">
+        <v>482.05985319028701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="20">
+        <v>492.98983625070503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="20">
+        <v>503.91981931112298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="20">
+        <v>514.84980237154105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="20">
+        <v>525.779785431959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="20">
+        <v>536.70976849237604</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="20">
+        <v>547.639751552794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="20">
+        <v>558.56973461321195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="20">
+        <v>569.49971767363002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="20">
+        <v>580.42970073404797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="20">
+        <v>591.35968379446604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="20">
+        <v>602.28966685488297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="20">
+        <v>613.21964991530103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="20">
+        <v>624.14963297571899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="20">
+        <v>635.07961603613705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="20">
+        <v>646.00959909655501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="20">
+        <v>656.93958215697205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="20">
+        <v>667.86956521739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="20">
+        <v>678.79954827780796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="20">
+        <v>689.72953133822602</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="20">
+        <v>700.65951439864398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="20">
+        <v>711.58949745906204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="20">
+        <v>722.51948051948</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="20">
+        <v>733.44946357989704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="20">
+        <v>744.379446640315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="20">
+        <v>755.30942970073295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="20">
+        <v>766.23941276115102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="20">
+        <v>777.16939582156897</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="20">
+        <v>788.09937888198601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="20">
+        <v>799.02936194240397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="20">
+        <v>809.95934500282203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="20">
+        <v>820.88932806323999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="20">
+        <v>831.81931112365805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="20">
+        <v>842.74929418407601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="20">
+        <v>853.67927724449305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="20">
+        <v>864.609260304911</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="20">
+        <v>875.53924336532896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="20">
+        <v>886.46922642574702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="20">
+        <v>897.39920948616498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="20">
+        <v>908.32919254658304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="20">
+        <v>919.25917560699997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="20">
+        <v>930.18915866741804</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="20">
+        <v>941.11914172783599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="20">
+        <v>952.04912478825395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="20">
+        <v>962.97910784867202</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A358" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1382,21 +2838,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>32</v>

--- a/Account_info.xlsx
+++ b/Account_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="5475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>FIRST_NAME</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Account Type Name Subtotal</t>
-  </si>
-  <si>
-    <t>YUNUS</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1140,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F92"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
@@ -1356,1463 +1353,248 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="20">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="20">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="20">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="20">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="20">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="20">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="20">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="20">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="20">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="20">
-        <v>219.74025974026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="20">
-        <v>230.67024280067699</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="20">
-        <v>241.600225861095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="20">
-        <v>252.53020892151301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="20">
-        <v>263.46019198193102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="20">
-        <v>274.39017504234897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="20">
-        <v>285.32015810276698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="20">
-        <v>296.25014116318403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="20">
-        <v>307.18012422360198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="20">
-        <v>318.11010728401999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="20">
-        <v>329.040090344438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="20">
-        <v>339.97007340485601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="20">
-        <v>350.90005646527402</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="20">
-        <v>361.83003952569101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="20">
-        <v>372.76002258610902</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="20">
-        <v>383.69000564652703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="20">
-        <v>394.61998870694498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="20">
-        <v>405.54997176736299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="20">
-        <v>416.479954827781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="20">
-        <v>427.40993788819799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="20">
-        <v>438.339920948616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="20">
-        <v>449.26990400903401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="20">
-        <v>460.19988706945202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="20">
-        <v>471.129870129869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="20">
-        <v>482.05985319028701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="20">
-        <v>492.98983625070503</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="20">
-        <v>503.91981931112298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="20">
-        <v>514.84980237154105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="20">
-        <v>525.779785431959</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="20">
-        <v>536.70976849237604</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="20">
-        <v>547.639751552794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="20">
-        <v>558.56973461321195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="20">
-        <v>569.49971767363002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="20">
-        <v>580.42970073404797</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="20">
-        <v>591.35968379446604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="20">
-        <v>602.28966685488297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="20">
-        <v>613.21964991530103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="20">
-        <v>624.14963297571899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="20">
-        <v>635.07961603613705</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="20">
-        <v>646.00959909655501</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="20">
-        <v>656.93958215697205</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="20">
-        <v>667.86956521739</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="20">
-        <v>678.79954827780796</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="20">
-        <v>689.72953133822602</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="20">
-        <v>700.65951439864398</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="20">
-        <v>711.58949745906204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="20">
-        <v>722.51948051948</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="20">
-        <v>733.44946357989704</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="20">
-        <v>744.379446640315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="20">
-        <v>755.30942970073295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="20">
-        <v>766.23941276115102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="20">
-        <v>777.16939582156897</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="20">
-        <v>788.09937888198601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="20">
-        <v>799.02936194240397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="20">
-        <v>809.95934500282203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="20">
-        <v>820.88932806323999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="20">
-        <v>831.81931112365805</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="20">
-        <v>842.74929418407601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="20">
-        <v>853.67927724449305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="20">
-        <v>864.609260304911</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="20">
-        <v>875.53924336532896</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" s="20">
-        <v>886.46922642574702</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="20">
-        <v>897.39920948616498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="20">
-        <v>908.32919254658304</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" s="20">
-        <v>919.25917560699997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="20">
-        <v>930.18915866741804</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="20">
-        <v>941.11914172783599</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="20">
-        <v>952.04912478825395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="20">
-        <v>962.97910784867202</v>
-      </c>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
